--- a/data/pca/factorExposure/factorExposure_2011-12-06.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-12-06.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.0132861172719567</v>
+        <v>-0.01349424095067506</v>
       </c>
       <c r="C2">
-        <v>0.03319770508340163</v>
+        <v>0.02630615964764791</v>
       </c>
       <c r="D2">
-        <v>0.01679925010618955</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.02221524858328606</v>
+      </c>
+      <c r="E2">
+        <v>-0.007524251131571799</v>
+      </c>
+      <c r="F2">
+        <v>0.02554849182442719</v>
+      </c>
+      <c r="G2">
+        <v>-0.003626263734773775</v>
+      </c>
+      <c r="H2">
+        <v>0.02519053510290077</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.07616352609214708</v>
+        <v>-0.08929329525829244</v>
       </c>
       <c r="C4">
-        <v>0.05581674394829468</v>
+        <v>0.03789059609114478</v>
       </c>
       <c r="D4">
-        <v>0.07772177783183008</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.06949782831499128</v>
+      </c>
+      <c r="E4">
+        <v>-0.008582605894279586</v>
+      </c>
+      <c r="F4">
+        <v>0.03914784156539905</v>
+      </c>
+      <c r="G4">
+        <v>0.01869634703999267</v>
+      </c>
+      <c r="H4">
+        <v>-0.04108078757079153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.110795829605487</v>
+        <v>-0.1242581735565772</v>
       </c>
       <c r="C6">
-        <v>0.05496385476462771</v>
+        <v>0.03999662487143949</v>
       </c>
       <c r="D6">
-        <v>0.001966028071637695</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.008107976327063992</v>
+      </c>
+      <c r="E6">
+        <v>0.0259852734116145</v>
+      </c>
+      <c r="F6">
+        <v>0.05164151680462522</v>
+      </c>
+      <c r="G6">
+        <v>0.02486656989008506</v>
+      </c>
+      <c r="H6">
+        <v>0.1262679430189377</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.05446621952962175</v>
+        <v>-0.06413615483841949</v>
       </c>
       <c r="C7">
-        <v>0.031961241392486</v>
+        <v>0.01672813592245961</v>
       </c>
       <c r="D7">
-        <v>0.03050860196532713</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.04941119303332148</v>
+      </c>
+      <c r="E7">
+        <v>-0.03037759358685804</v>
+      </c>
+      <c r="F7">
+        <v>0.04070237486572702</v>
+      </c>
+      <c r="G7">
+        <v>-0.03423593594381229</v>
+      </c>
+      <c r="H7">
+        <v>-0.01760367607275023</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.03871996778324919</v>
+        <v>-0.0424005924867935</v>
       </c>
       <c r="C8">
-        <v>0.01264433734950562</v>
+        <v>0.008770707077648583</v>
       </c>
       <c r="D8">
-        <v>0.06397660689236304</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.02536620016620292</v>
+      </c>
+      <c r="E8">
+        <v>-0.01346908947746782</v>
+      </c>
+      <c r="F8">
+        <v>0.06884712658548378</v>
+      </c>
+      <c r="G8">
+        <v>0.07746855351697444</v>
+      </c>
+      <c r="H8">
+        <v>0.02092547397159528</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.0706329196059813</v>
+        <v>-0.08058802032519885</v>
       </c>
       <c r="C9">
-        <v>0.04042409327035301</v>
+        <v>0.02392656580230275</v>
       </c>
       <c r="D9">
-        <v>0.0721533531482739</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.06402947482976439</v>
+      </c>
+      <c r="E9">
+        <v>-0.0241280644344641</v>
+      </c>
+      <c r="F9">
+        <v>0.03293680446036007</v>
+      </c>
+      <c r="G9">
+        <v>0.03246877480086527</v>
+      </c>
+      <c r="H9">
+        <v>-0.04499720575714974</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.02759034504955928</v>
+        <v>-0.04409392239798193</v>
       </c>
       <c r="C10">
-        <v>0.02257896565485256</v>
+        <v>0.05681566010558903</v>
       </c>
       <c r="D10">
-        <v>-0.172993291747064</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1769991693982446</v>
+      </c>
+      <c r="E10">
+        <v>-0.04158572190410374</v>
+      </c>
+      <c r="F10">
+        <v>0.04978505594260133</v>
+      </c>
+      <c r="G10">
+        <v>-0.0352176441023429</v>
+      </c>
+      <c r="H10">
+        <v>0.05375596707345329</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.07110092374976268</v>
+        <v>-0.07578791656312149</v>
       </c>
       <c r="C11">
-        <v>0.04487030044907836</v>
+        <v>0.02162294009674119</v>
       </c>
       <c r="D11">
-        <v>0.05271542393693051</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.06618451095635627</v>
+      </c>
+      <c r="E11">
+        <v>0.002892633739060812</v>
+      </c>
+      <c r="F11">
+        <v>0.03064566319553965</v>
+      </c>
+      <c r="G11">
+        <v>0.04973288854518524</v>
+      </c>
+      <c r="H11">
+        <v>-0.06948763241557111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.06082420967768526</v>
+        <v>-0.06974979480360366</v>
       </c>
       <c r="C12">
-        <v>0.05363783061689108</v>
+        <v>0.03393657850429149</v>
       </c>
       <c r="D12">
-        <v>0.0428965986617248</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.05089877564090001</v>
+      </c>
+      <c r="E12">
+        <v>-0.01261064709387311</v>
+      </c>
+      <c r="F12">
+        <v>0.0215757124186506</v>
+      </c>
+      <c r="G12">
+        <v>0.02890023705918365</v>
+      </c>
+      <c r="H12">
+        <v>-0.03343919569324066</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.06809333909925867</v>
+        <v>-0.06784639567777398</v>
       </c>
       <c r="C13">
-        <v>0.03517117153814961</v>
+        <v>0.01664008241197184</v>
       </c>
       <c r="D13">
-        <v>0.04078443522962956</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.03758783372339868</v>
+      </c>
+      <c r="E13">
+        <v>-0.007447981722903052</v>
+      </c>
+      <c r="F13">
+        <v>0.02667766093520266</v>
+      </c>
+      <c r="G13">
+        <v>0.03051331166848355</v>
+      </c>
+      <c r="H13">
+        <v>-0.04684331672108795</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.03248758115117579</v>
+        <v>-0.04051546319392522</v>
       </c>
       <c r="C14">
-        <v>0.03353313091532177</v>
+        <v>0.02867315209282337</v>
       </c>
       <c r="D14">
-        <v>-0.007550020990994705</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.01279970071099945</v>
+      </c>
+      <c r="E14">
+        <v>-0.02664463613425498</v>
+      </c>
+      <c r="F14">
+        <v>0.0146295472486232</v>
+      </c>
+      <c r="G14">
+        <v>0.02405504602588304</v>
+      </c>
+      <c r="H14">
+        <v>-0.05557873787375869</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.04139552570180553</v>
+        <v>-0.04039654060965214</v>
       </c>
       <c r="C15">
-        <v>0.0107564041614972</v>
+        <v>0.003183854511166903</v>
       </c>
       <c r="D15">
-        <v>0.02217627896881868</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.008537244869208774</v>
+      </c>
+      <c r="E15">
+        <v>-0.03627448046584462</v>
+      </c>
+      <c r="F15">
+        <v>0.003647842436201683</v>
+      </c>
+      <c r="G15">
+        <v>0.03546952604268561</v>
+      </c>
+      <c r="H15">
+        <v>-0.0214962830470233</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.05952986026648794</v>
+        <v>-0.07112857261253017</v>
       </c>
       <c r="C16">
-        <v>0.0431082862580899</v>
+        <v>0.02519568484526381</v>
       </c>
       <c r="D16">
-        <v>0.0538593309916443</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06411801533827008</v>
+      </c>
+      <c r="E16">
+        <v>-0.007466838446039389</v>
+      </c>
+      <c r="F16">
+        <v>0.02980871031587451</v>
+      </c>
+      <c r="G16">
+        <v>0.0268100276281194</v>
+      </c>
+      <c r="H16">
+        <v>-0.05437611659659328</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.06483414037935924</v>
+        <v>-0.06355280661468153</v>
       </c>
       <c r="C20">
-        <v>0.02857215830484216</v>
+        <v>0.009076050156101611</v>
       </c>
       <c r="D20">
-        <v>0.04550385271125972</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.03936953170129047</v>
+      </c>
+      <c r="E20">
+        <v>-0.008370437811125554</v>
+      </c>
+      <c r="F20">
+        <v>0.02854851671452848</v>
+      </c>
+      <c r="G20">
+        <v>0.02633227626909844</v>
+      </c>
+      <c r="H20">
+        <v>-0.04570371421245457</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.03174371513761581</v>
+        <v>-0.02865482428050356</v>
       </c>
       <c r="C21">
-        <v>0.003741404287063184</v>
+        <v>-0.006892652002549422</v>
       </c>
       <c r="D21">
-        <v>0.01497881581378303</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.02111068839147656</v>
+      </c>
+      <c r="E21">
+        <v>-0.04072863570519926</v>
+      </c>
+      <c r="F21">
+        <v>-0.0149706328803149</v>
+      </c>
+      <c r="G21">
+        <v>0.007862672245477244</v>
+      </c>
+      <c r="H21">
+        <v>0.04977664742398284</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.08048486646061177</v>
+        <v>-0.0716542919029579</v>
       </c>
       <c r="C22">
-        <v>0.06122477781997345</v>
+        <v>0.02838841446086767</v>
       </c>
       <c r="D22">
-        <v>0.1463885105549335</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.1060609321053429</v>
+      </c>
+      <c r="E22">
+        <v>-0.6093369216803477</v>
+      </c>
+      <c r="F22">
+        <v>-0.06061277487433431</v>
+      </c>
+      <c r="G22">
+        <v>-0.1819829441381728</v>
+      </c>
+      <c r="H22">
+        <v>0.1373403815331592</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.08152996014520514</v>
+        <v>-0.0725784506153961</v>
       </c>
       <c r="C23">
-        <v>0.05975304922637911</v>
+        <v>0.0268946722703883</v>
       </c>
       <c r="D23">
-        <v>0.1476402494668822</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.1071225855825042</v>
+      </c>
+      <c r="E23">
+        <v>-0.611428594065396</v>
+      </c>
+      <c r="F23">
+        <v>-0.06004069969910625</v>
+      </c>
+      <c r="G23">
+        <v>-0.1759550331814283</v>
+      </c>
+      <c r="H23">
+        <v>0.1335277628453945</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.07787933674996025</v>
+        <v>-0.08154470719263861</v>
       </c>
       <c r="C24">
-        <v>0.0562120421247004</v>
+        <v>0.03109858241225646</v>
       </c>
       <c r="D24">
-        <v>0.05561837130285045</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.06330669901885826</v>
+      </c>
+      <c r="E24">
+        <v>-0.01205094346263725</v>
+      </c>
+      <c r="F24">
+        <v>0.03599321849622519</v>
+      </c>
+      <c r="G24">
+        <v>0.04148543364603281</v>
+      </c>
+      <c r="H24">
+        <v>-0.03589744003715673</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.0747524475967028</v>
+        <v>-0.0797651803349627</v>
       </c>
       <c r="C25">
-        <v>0.05579032203311136</v>
+        <v>0.03382832654025466</v>
       </c>
       <c r="D25">
-        <v>0.05607638488749541</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.05179903676633466</v>
+      </c>
+      <c r="E25">
+        <v>-0.0184857996234441</v>
+      </c>
+      <c r="F25">
+        <v>0.03392125034127869</v>
+      </c>
+      <c r="G25">
+        <v>0.0535778141399995</v>
+      </c>
+      <c r="H25">
+        <v>-0.03885306549840617</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.04666467365657519</v>
+        <v>-0.04644191433231193</v>
       </c>
       <c r="C26">
-        <v>0.01573339807475805</v>
+        <v>0.004618045386056523</v>
       </c>
       <c r="D26">
-        <v>0.006904498152968033</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.01911120032569109</v>
+      </c>
+      <c r="E26">
+        <v>-0.04173601230238733</v>
+      </c>
+      <c r="F26">
+        <v>0.03126982694260469</v>
+      </c>
+      <c r="G26">
+        <v>0.01616704263835574</v>
+      </c>
+      <c r="H26">
+        <v>-0.04504845535247727</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.0441738495329046</v>
+        <v>-0.06739690544844014</v>
       </c>
       <c r="C28">
-        <v>0.06639960177415072</v>
+        <v>0.1143006650143554</v>
       </c>
       <c r="D28">
-        <v>-0.308000856957885</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2976923382713793</v>
+      </c>
+      <c r="E28">
+        <v>-0.03786865984350384</v>
+      </c>
+      <c r="F28">
+        <v>0.05403193966180624</v>
+      </c>
+      <c r="G28">
+        <v>0.02143370683445131</v>
+      </c>
+      <c r="H28">
+        <v>0.05127071841004785</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.04467203432461967</v>
+        <v>-0.04703379772551063</v>
       </c>
       <c r="C29">
-        <v>0.03109417435778835</v>
+        <v>0.02245300725945449</v>
       </c>
       <c r="D29">
-        <v>0.002769125095447731</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01226006482531281</v>
+      </c>
+      <c r="E29">
+        <v>-0.0552161917945664</v>
+      </c>
+      <c r="F29">
+        <v>0.01270171982905804</v>
+      </c>
+      <c r="G29">
+        <v>0.01329648221266054</v>
+      </c>
+      <c r="H29">
+        <v>-0.06612414706089294</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.1293657859908778</v>
+        <v>-0.1278891930278737</v>
       </c>
       <c r="C30">
-        <v>0.09366569314620335</v>
+        <v>0.05801572561289204</v>
       </c>
       <c r="D30">
-        <v>0.1144623760718223</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.08194186379621447</v>
+      </c>
+      <c r="E30">
+        <v>-0.05456900349186544</v>
+      </c>
+      <c r="F30">
+        <v>0.01344301269082073</v>
+      </c>
+      <c r="G30">
+        <v>0.05956197745898499</v>
+      </c>
+      <c r="H30">
+        <v>0.03192276514922932</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.0490608118589427</v>
+        <v>-0.04968532460499951</v>
       </c>
       <c r="C31">
-        <v>0.02477172989846137</v>
+        <v>0.01052183976592848</v>
       </c>
       <c r="D31">
-        <v>0.01843913023719776</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.03339925244528373</v>
+      </c>
+      <c r="E31">
+        <v>-0.02343958191765939</v>
+      </c>
+      <c r="F31">
+        <v>0.009140585006995846</v>
+      </c>
+      <c r="G31">
+        <v>0.001290554294151273</v>
+      </c>
+      <c r="H31">
+        <v>-0.06856334664164591</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.03369193646561072</v>
+        <v>-0.03747835853792994</v>
       </c>
       <c r="C32">
-        <v>0.02161729225907135</v>
+        <v>0.02016015072833092</v>
       </c>
       <c r="D32">
-        <v>0.03019072101327032</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.01070786021885774</v>
+      </c>
+      <c r="E32">
+        <v>-0.04841479779873951</v>
+      </c>
+      <c r="F32">
+        <v>-0.002646220598843742</v>
+      </c>
+      <c r="G32">
+        <v>0.04453175757356989</v>
+      </c>
+      <c r="H32">
+        <v>-0.02042031871546328</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.08680694074282859</v>
+        <v>-0.09482381883322399</v>
       </c>
       <c r="C33">
-        <v>0.04817137486329901</v>
+        <v>0.02524804668418658</v>
       </c>
       <c r="D33">
-        <v>0.04692461848001147</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.04996339650372664</v>
+      </c>
+      <c r="E33">
+        <v>-0.01481222850144001</v>
+      </c>
+      <c r="F33">
+        <v>0.003626510958802611</v>
+      </c>
+      <c r="G33">
+        <v>0.01963135179533228</v>
+      </c>
+      <c r="H33">
+        <v>-0.06703251624377476</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.0596554835429071</v>
+        <v>-0.06533000524888155</v>
       </c>
       <c r="C34">
-        <v>0.02638400009968429</v>
+        <v>0.008748095293886832</v>
       </c>
       <c r="D34">
-        <v>0.04726488710999741</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.04894811108462476</v>
+      </c>
+      <c r="E34">
+        <v>-0.006980699687356905</v>
+      </c>
+      <c r="F34">
+        <v>0.02088465076048979</v>
+      </c>
+      <c r="G34">
+        <v>0.03599753496261463</v>
+      </c>
+      <c r="H34">
+        <v>-0.04528363173151605</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>-0.03692856524494649</v>
+        <v>-0.03868621694381713</v>
       </c>
       <c r="C35">
-        <v>0.01149359633589634</v>
+        <v>0.004653224857156369</v>
       </c>
       <c r="D35">
-        <v>0.022250967706018</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01615794818914707</v>
+      </c>
+      <c r="E35">
+        <v>-0.02369302095381769</v>
+      </c>
+      <c r="F35">
+        <v>-0.01794608757784824</v>
+      </c>
+      <c r="G35">
+        <v>-0.003921607122252637</v>
+      </c>
+      <c r="H35">
+        <v>-0.03399103239308517</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.02552552734760386</v>
+        <v>-0.02990645379863165</v>
       </c>
       <c r="C36">
-        <v>0.02022439185167166</v>
+        <v>0.01515514998880178</v>
       </c>
       <c r="D36">
-        <v>0.01854042696743669</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01757582666192252</v>
+      </c>
+      <c r="E36">
+        <v>-0.03027365729293282</v>
+      </c>
+      <c r="F36">
+        <v>0.02793689782690949</v>
+      </c>
+      <c r="G36">
+        <v>0.00862039471809866</v>
+      </c>
+      <c r="H36">
+        <v>-0.05010198130140277</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.04793460198101108</v>
+        <v>-0.04768792289909393</v>
       </c>
       <c r="C38">
-        <v>0.006337564286727309</v>
+        <v>-0.003676699259050032</v>
       </c>
       <c r="D38">
-        <v>0.01329209681540502</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.01895153543649657</v>
+      </c>
+      <c r="E38">
+        <v>-0.04837230265445213</v>
+      </c>
+      <c r="F38">
+        <v>-0.002176264898274684</v>
+      </c>
+      <c r="G38">
+        <v>0.004944931348825598</v>
+      </c>
+      <c r="H38">
+        <v>-0.02327490529594853</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.09140506572037574</v>
+        <v>-0.1012889634422915</v>
       </c>
       <c r="C39">
-        <v>0.06798438696794802</v>
+        <v>0.04359996232939966</v>
       </c>
       <c r="D39">
-        <v>0.05409237745097171</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.06517300948277233</v>
+      </c>
+      <c r="E39">
+        <v>-1.546437395398131e-05</v>
+      </c>
+      <c r="F39">
+        <v>-0.006529186498434732</v>
+      </c>
+      <c r="G39">
+        <v>0.04100981365672516</v>
+      </c>
+      <c r="H39">
+        <v>-0.02286669084516727</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.08142875191044346</v>
+        <v>-0.06326393705842161</v>
       </c>
       <c r="C40">
-        <v>0.03771415025320225</v>
+        <v>0.004332808299938184</v>
       </c>
       <c r="D40">
-        <v>0.01034106579412724</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03459295444842675</v>
+      </c>
+      <c r="E40">
+        <v>-0.03540896099172863</v>
+      </c>
+      <c r="F40">
+        <v>-0.03875661759511077</v>
+      </c>
+      <c r="G40">
+        <v>0.04501428758776109</v>
+      </c>
+      <c r="H40">
+        <v>0.06543575666966063</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.04605395232516451</v>
+        <v>-0.047489868418561</v>
       </c>
       <c r="C41">
-        <v>0.01331889233704437</v>
+        <v>0.0005523280207537369</v>
       </c>
       <c r="D41">
-        <v>0.03675077582402099</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.03061392588815429</v>
+      </c>
+      <c r="E41">
+        <v>-0.002204191424229947</v>
+      </c>
+      <c r="F41">
+        <v>-0.01272259179485027</v>
+      </c>
+      <c r="G41">
+        <v>0.008806850399592789</v>
+      </c>
+      <c r="H41">
+        <v>-0.02603774692612385</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.05449129463188374</v>
+        <v>-0.06119056491493884</v>
       </c>
       <c r="C43">
-        <v>0.02891777005284214</v>
+        <v>0.01700604620181329</v>
       </c>
       <c r="D43">
-        <v>0.0105886172670168</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.02802435417298921</v>
+      </c>
+      <c r="E43">
+        <v>-0.02149419793659772</v>
+      </c>
+      <c r="F43">
+        <v>0.01563822709483932</v>
+      </c>
+      <c r="G43">
+        <v>-0.00495978918348506</v>
+      </c>
+      <c r="H43">
+        <v>-0.06421963199869021</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.09663796455046841</v>
+        <v>-0.09435789665384604</v>
       </c>
       <c r="C44">
-        <v>0.08589419779535233</v>
+        <v>0.05316617702350421</v>
       </c>
       <c r="D44">
-        <v>0.06713223448811448</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.0719843969608307</v>
+      </c>
+      <c r="E44">
+        <v>-0.06286199332475945</v>
+      </c>
+      <c r="F44">
+        <v>0.08615146211055361</v>
+      </c>
+      <c r="G44">
+        <v>0.0742903490026275</v>
+      </c>
+      <c r="H44">
+        <v>-0.08874658927106732</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02701347656446302</v>
+        <v>-0.03539466150627474</v>
       </c>
       <c r="C46">
-        <v>0.01775497882668903</v>
+        <v>0.01134952381014351</v>
       </c>
       <c r="D46">
-        <v>0.0315810881272441</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.03640697825624435</v>
+      </c>
+      <c r="E46">
+        <v>-0.03112411339252208</v>
+      </c>
+      <c r="F46">
+        <v>0.01591405139258728</v>
+      </c>
+      <c r="G46">
+        <v>0.005117420699248068</v>
+      </c>
+      <c r="H46">
+        <v>-0.02104484269429426</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.03327347729932664</v>
+        <v>-0.04062164177791915</v>
       </c>
       <c r="C47">
-        <v>0.0234154276988093</v>
+        <v>0.01866925119601862</v>
       </c>
       <c r="D47">
-        <v>-0.0005476037956610576</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.007784659360452147</v>
+      </c>
+      <c r="E47">
+        <v>-0.04029304329991785</v>
+      </c>
+      <c r="F47">
+        <v>-0.008172017342964149</v>
+      </c>
+      <c r="G47">
+        <v>-0.02706204971283747</v>
+      </c>
+      <c r="H47">
+        <v>-0.02889243666098195</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.03708650037541852</v>
+        <v>-0.04059570403324414</v>
       </c>
       <c r="C48">
-        <v>0.02471200251984074</v>
+        <v>0.01493442978453264</v>
       </c>
       <c r="D48">
-        <v>0.02818098019406973</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.02005558878105703</v>
+      </c>
+      <c r="E48">
+        <v>-0.03815642762967117</v>
+      </c>
+      <c r="F48">
+        <v>0.01009572164761291</v>
+      </c>
+      <c r="G48">
+        <v>0.01959840341416487</v>
+      </c>
+      <c r="H48">
+        <v>-0.02510615421660261</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>-0.1636158759543304</v>
+        <v>-0.1998861024557607</v>
       </c>
       <c r="C49">
-        <v>0.05240973430837768</v>
+        <v>0.03484182582164756</v>
       </c>
       <c r="D49">
-        <v>-0.001160046130163359</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.02222212502985259</v>
+      </c>
+      <c r="E49">
+        <v>0.1695524662487449</v>
+      </c>
+      <c r="F49">
+        <v>0.04635921413596741</v>
+      </c>
+      <c r="G49">
+        <v>-0.1654413959746711</v>
+      </c>
+      <c r="H49">
+        <v>0.217900362852916</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.04335168987469343</v>
+        <v>-0.04558145938018193</v>
       </c>
       <c r="C50">
-        <v>0.02520064734524744</v>
+        <v>0.01265973592393532</v>
       </c>
       <c r="D50">
-        <v>0.03642055397145911</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.03897361331441337</v>
+      </c>
+      <c r="E50">
+        <v>-0.03332127983183417</v>
+      </c>
+      <c r="F50">
+        <v>0.00627066979909438</v>
+      </c>
+      <c r="G50">
+        <v>0.006875156466498153</v>
+      </c>
+      <c r="H50">
+        <v>-0.07707124050740025</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.02740297043905981</v>
+        <v>-0.03426351729229788</v>
       </c>
       <c r="C51">
-        <v>0.01030347212979591</v>
+        <v>0.006442072531289639</v>
       </c>
       <c r="D51">
-        <v>-0.00294228999565323</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.001290231829362464</v>
+      </c>
+      <c r="E51">
+        <v>-0.01169924690335455</v>
+      </c>
+      <c r="F51">
+        <v>0.008889056211753989</v>
+      </c>
+      <c r="G51">
+        <v>-0.01573891570913673</v>
+      </c>
+      <c r="H51">
+        <v>0.01992558166602916</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1540991029579656</v>
+        <v>-0.1603792153244015</v>
       </c>
       <c r="C53">
-        <v>0.07617374474403922</v>
+        <v>0.04679635711807294</v>
       </c>
       <c r="D53">
-        <v>-0.002833121757846814</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.02557014764581866</v>
+      </c>
+      <c r="E53">
+        <v>0.03089618788697721</v>
+      </c>
+      <c r="F53">
+        <v>0.001969009737293444</v>
+      </c>
+      <c r="G53">
+        <v>0.0296079438286928</v>
+      </c>
+      <c r="H53">
+        <v>-0.1964694007509187</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.05864193349776659</v>
+        <v>-0.05819095969820112</v>
       </c>
       <c r="C54">
-        <v>0.02423678609075113</v>
+        <v>0.01268098316728851</v>
       </c>
       <c r="D54">
-        <v>0.01595681245958327</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.01412675581409399</v>
+      </c>
+      <c r="E54">
+        <v>-0.05246889615295476</v>
+      </c>
+      <c r="F54">
+        <v>0.01239399085973043</v>
+      </c>
+      <c r="G54">
+        <v>0.05873066294182149</v>
+      </c>
+      <c r="H54">
+        <v>-0.03449027102391946</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.1036152619279425</v>
+        <v>-0.103897293886513</v>
       </c>
       <c r="C55">
-        <v>0.05454286235532705</v>
+        <v>0.03126891193245919</v>
       </c>
       <c r="D55">
-        <v>0.01369941047042529</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.03006832253481287</v>
+      </c>
+      <c r="E55">
+        <v>-0.001665611156466656</v>
+      </c>
+      <c r="F55">
+        <v>0.01539623669792336</v>
+      </c>
+      <c r="G55">
+        <v>0.0379734757321868</v>
+      </c>
+      <c r="H55">
+        <v>-0.155005565874655</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1491310865659163</v>
+        <v>-0.1563448016548094</v>
       </c>
       <c r="C56">
-        <v>0.08192600882299562</v>
+        <v>0.04912078278916642</v>
       </c>
       <c r="D56">
-        <v>0.001551984352290548</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.04097883234844764</v>
+      </c>
+      <c r="E56">
+        <v>0.01388567825461602</v>
+      </c>
+      <c r="F56">
+        <v>0.02274832438692515</v>
+      </c>
+      <c r="G56">
+        <v>0.03596916057097682</v>
+      </c>
+      <c r="H56">
+        <v>-0.1977634493227373</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1307742136313568</v>
+        <v>-0.09925337598219601</v>
       </c>
       <c r="C58">
-        <v>-0.01310167521507713</v>
+        <v>-0.056671378103247</v>
       </c>
       <c r="D58">
-        <v>0.05100433747541878</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.03224876196165876</v>
+      </c>
+      <c r="E58">
+        <v>-0.1206458614532692</v>
+      </c>
+      <c r="F58">
+        <v>0.02769394438704054</v>
+      </c>
+      <c r="G58">
+        <v>-0.08990793892450759</v>
+      </c>
+      <c r="H58">
+        <v>0.1336251855880357</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1185874250898469</v>
+        <v>-0.1441464907892799</v>
       </c>
       <c r="C59">
-        <v>0.07272516338775897</v>
+        <v>0.117674076263097</v>
       </c>
       <c r="D59">
-        <v>-0.3992868151584857</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.3548807603141355</v>
+      </c>
+      <c r="E59">
+        <v>-0.03255107118531695</v>
+      </c>
+      <c r="F59">
+        <v>-0.0006994609484663899</v>
+      </c>
+      <c r="G59">
+        <v>-0.005530323998104587</v>
+      </c>
+      <c r="H59">
+        <v>-0.01159353785203417</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.208923631828358</v>
+        <v>-0.2397591535655435</v>
       </c>
       <c r="C60">
-        <v>0.09366306925957359</v>
+        <v>0.06055113152384552</v>
       </c>
       <c r="D60">
-        <v>0.009494879473830736</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.04353703821016548</v>
+      </c>
+      <c r="E60">
+        <v>0.113841707165535</v>
+      </c>
+      <c r="F60">
+        <v>0.04581655256234152</v>
+      </c>
+      <c r="G60">
+        <v>-0.04250307917384551</v>
+      </c>
+      <c r="H60">
+        <v>0.1434603601610896</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.0797403070971355</v>
+        <v>-0.08598292621019005</v>
       </c>
       <c r="C61">
-        <v>0.04548420116827826</v>
+        <v>0.02684344499500762</v>
       </c>
       <c r="D61">
-        <v>0.03417622813757545</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04417856149001057</v>
+      </c>
+      <c r="E61">
+        <v>-0.006543110946762784</v>
+      </c>
+      <c r="F61">
+        <v>0.005958103746473579</v>
+      </c>
+      <c r="G61">
+        <v>0.03511052585127442</v>
+      </c>
+      <c r="H61">
+        <v>-0.05943192273326491</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>-0.1330617708003574</v>
+        <v>-0.1372956843151645</v>
       </c>
       <c r="C62">
-        <v>0.06209140051590845</v>
+        <v>0.03026426989027948</v>
       </c>
       <c r="D62">
-        <v>-0.001323502262891007</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.04320394299034799</v>
+      </c>
+      <c r="E62">
+        <v>0.04299412262537997</v>
+      </c>
+      <c r="F62">
+        <v>-0.01049297728366815</v>
+      </c>
+      <c r="G62">
+        <v>0.06691812033459829</v>
+      </c>
+      <c r="H62">
+        <v>-0.1942056940452498</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.05176341863286131</v>
+        <v>-0.05047067993871614</v>
       </c>
       <c r="C63">
-        <v>0.02462273622916399</v>
+        <v>0.01388008538325701</v>
       </c>
       <c r="D63">
-        <v>0.02313661976502608</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02015893903006759</v>
+      </c>
+      <c r="E63">
+        <v>-0.04344907769989408</v>
+      </c>
+      <c r="F63">
+        <v>-0.002766896370873411</v>
+      </c>
+      <c r="G63">
+        <v>0.02942688437636306</v>
+      </c>
+      <c r="H63">
+        <v>-0.03028331174429545</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.1071442178301522</v>
+        <v>-0.1103569950416213</v>
       </c>
       <c r="C64">
-        <v>0.03744465712425834</v>
+        <v>0.01790434746065096</v>
       </c>
       <c r="D64">
-        <v>0.02155110625455849</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.02874050884000843</v>
+      </c>
+      <c r="E64">
+        <v>-0.03829149014668683</v>
+      </c>
+      <c r="F64">
+        <v>0.04084710516752521</v>
+      </c>
+      <c r="G64">
+        <v>0.0601571523965491</v>
+      </c>
+      <c r="H64">
+        <v>-0.02458592558673365</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.1256401021420102</v>
+        <v>-0.128576140902684</v>
       </c>
       <c r="C65">
-        <v>0.05848902932042018</v>
+        <v>0.04037986980558378</v>
       </c>
       <c r="D65">
-        <v>0.01013551688078517</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.01210052226760386</v>
+      </c>
+      <c r="E65">
+        <v>0.006832165124104198</v>
+      </c>
+      <c r="F65">
+        <v>0.04392709682168519</v>
+      </c>
+      <c r="G65">
+        <v>0.05930054497740721</v>
+      </c>
+      <c r="H65">
+        <v>0.1574871500754895</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.1469737334143499</v>
+        <v>-0.1515952498253386</v>
       </c>
       <c r="C66">
-        <v>0.0714471161312373</v>
+        <v>0.03303779748855869</v>
       </c>
       <c r="D66">
-        <v>0.09865322416727358</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1021300008123376</v>
+      </c>
+      <c r="E66">
+        <v>0.02821966121449147</v>
+      </c>
+      <c r="F66">
+        <v>-0.00114617469907295</v>
+      </c>
+      <c r="G66">
+        <v>0.07236977174939599</v>
+      </c>
+      <c r="H66">
+        <v>-0.08435068595245106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.0778696621301579</v>
+        <v>-0.08708474598424758</v>
       </c>
       <c r="C67">
-        <v>0.01278541571620198</v>
+        <v>0.0001808805065194919</v>
       </c>
       <c r="D67">
-        <v>0.01894843596778306</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.03063716383916946</v>
+      </c>
+      <c r="E67">
+        <v>-0.02054952827082458</v>
+      </c>
+      <c r="F67">
+        <v>0.01384803761795744</v>
+      </c>
+      <c r="G67">
+        <v>-0.01069344843469117</v>
+      </c>
+      <c r="H67">
+        <v>-0.02101823170756495</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.05264080195967488</v>
+        <v>-0.06148191701527841</v>
       </c>
       <c r="C68">
-        <v>0.04670874534325906</v>
+        <v>0.08619514105296447</v>
       </c>
       <c r="D68">
-        <v>-0.2597953603847619</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2632234416134845</v>
+      </c>
+      <c r="E68">
+        <v>-0.04758277261395299</v>
+      </c>
+      <c r="F68">
+        <v>0.01460267820455019</v>
+      </c>
+      <c r="G68">
+        <v>0.003052012624949504</v>
+      </c>
+      <c r="H68">
+        <v>-0.01936188979723273</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05300822255276207</v>
+        <v>-0.05224801036883387</v>
       </c>
       <c r="C69">
-        <v>0.0185836267550058</v>
+        <v>0.004823741322466465</v>
       </c>
       <c r="D69">
-        <v>0.02230288145795244</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.0192489336062108</v>
+      </c>
+      <c r="E69">
+        <v>-0.02302233710527312</v>
+      </c>
+      <c r="F69">
+        <v>-0.01264098200912655</v>
+      </c>
+      <c r="G69">
+        <v>0.002737596618742345</v>
+      </c>
+      <c r="H69">
+        <v>-0.0423456077589839</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>-0.00424125641883575</v>
+        <v>-0.02871393692792212</v>
       </c>
       <c r="C70">
-        <v>-0.005747422553407722</v>
+        <v>-0.001347146894861877</v>
       </c>
       <c r="D70">
-        <v>-0.01157986294729215</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.00761469822310359</v>
+      </c>
+      <c r="E70">
+        <v>0.02353178378187508</v>
+      </c>
+      <c r="F70">
+        <v>-0.007278973473023375</v>
+      </c>
+      <c r="G70">
+        <v>-0.02903129491425256</v>
+      </c>
+      <c r="H70">
+        <v>0.03514768491418915</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.05216350597530767</v>
+        <v>-0.06818850722950441</v>
       </c>
       <c r="C71">
-        <v>0.04821231901712181</v>
+        <v>0.09790045845635022</v>
       </c>
       <c r="D71">
-        <v>-0.2935837103593482</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2914693355092831</v>
+      </c>
+      <c r="E71">
+        <v>-0.04810177208311883</v>
+      </c>
+      <c r="F71">
+        <v>0.04123191348098046</v>
+      </c>
+      <c r="G71">
+        <v>0.005578210199475837</v>
+      </c>
+      <c r="H71">
+        <v>-0.01393061932214701</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1413291992127672</v>
+        <v>-0.1445612640777672</v>
       </c>
       <c r="C72">
-        <v>0.06392751946362056</v>
+        <v>0.03561651684913703</v>
       </c>
       <c r="D72">
-        <v>-0.00933602577108293</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.003478639049548323</v>
+      </c>
+      <c r="E72">
+        <v>0.04699911844384438</v>
+      </c>
+      <c r="F72">
+        <v>-0.1607592055124375</v>
+      </c>
+      <c r="G72">
+        <v>0.1121644656558453</v>
+      </c>
+      <c r="H72">
+        <v>0.007011027873899072</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2846352066038118</v>
+        <v>-0.2888455348128628</v>
       </c>
       <c r="C73">
-        <v>0.09547794678591183</v>
+        <v>0.02332469274826841</v>
       </c>
       <c r="D73">
-        <v>0.03721776148605483</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.09250986773599429</v>
+      </c>
+      <c r="E73">
+        <v>0.2586075226283112</v>
+      </c>
+      <c r="F73">
+        <v>0.07652830409675834</v>
+      </c>
+      <c r="G73">
+        <v>-0.2872257804978506</v>
+      </c>
+      <c r="H73">
+        <v>0.3621747789724993</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.08382186623355183</v>
+        <v>-0.09267319879259658</v>
       </c>
       <c r="C74">
-        <v>0.07619330881115299</v>
+        <v>0.05478819147695583</v>
       </c>
       <c r="D74">
-        <v>0.004758840979002767</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.03870457206445235</v>
+      </c>
+      <c r="E74">
+        <v>0.003635312152677037</v>
+      </c>
+      <c r="F74">
+        <v>-0.0001454818760846121</v>
+      </c>
+      <c r="G74">
+        <v>-0.01434942711245693</v>
+      </c>
+      <c r="H74">
+        <v>-0.1359134743495648</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.100588752677372</v>
+        <v>-0.1025066148013267</v>
       </c>
       <c r="C75">
-        <v>0.04809189661337092</v>
+        <v>0.02097734478357756</v>
       </c>
       <c r="D75">
-        <v>0.01167482109843493</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.02516736691268152</v>
+      </c>
+      <c r="E75">
+        <v>0.001444645116074656</v>
+      </c>
+      <c r="F75">
+        <v>0.0003038546785438902</v>
+      </c>
+      <c r="G75">
+        <v>-0.0001281968484380727</v>
+      </c>
+      <c r="H75">
+        <v>-0.09575751226122074</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.132285581351365</v>
+        <v>-0.1414560356687219</v>
       </c>
       <c r="C76">
-        <v>0.0762549390766422</v>
+        <v>0.04722026473596608</v>
       </c>
       <c r="D76">
-        <v>0.02487902635773245</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.05309854213269535</v>
+      </c>
+      <c r="E76">
+        <v>-0.01431263099119688</v>
+      </c>
+      <c r="F76">
+        <v>0.03476077724493559</v>
+      </c>
+      <c r="G76">
+        <v>0.04983859039201857</v>
+      </c>
+      <c r="H76">
+        <v>-0.2149718659056668</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1199231877368244</v>
+        <v>-0.1029298994726687</v>
       </c>
       <c r="C77">
-        <v>0.02722820063586408</v>
+        <v>-0.009207854042549217</v>
       </c>
       <c r="D77">
-        <v>0.07992937657985176</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.04182884770259673</v>
+      </c>
+      <c r="E77">
+        <v>-0.0440874497722239</v>
+      </c>
+      <c r="F77">
+        <v>0.04697974825550857</v>
+      </c>
+      <c r="G77">
+        <v>0.7629627920265994</v>
+      </c>
+      <c r="H77">
+        <v>0.4343321510531967</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.1077189674907996</v>
+        <v>-0.1527568764390454</v>
       </c>
       <c r="C78">
-        <v>0.04278937583428279</v>
+        <v>0.03567507826422357</v>
       </c>
       <c r="D78">
-        <v>0.08782549237909192</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.07929533440406739</v>
+      </c>
+      <c r="E78">
+        <v>-0.05556789856180747</v>
+      </c>
+      <c r="F78">
+        <v>0.05291932868030046</v>
+      </c>
+      <c r="G78">
+        <v>0.03590028909707603</v>
+      </c>
+      <c r="H78">
+        <v>0.07239322466290479</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.1445367328009527</v>
+        <v>-0.1463857191940402</v>
       </c>
       <c r="C79">
-        <v>0.06974478014456542</v>
+        <v>0.03451604210811393</v>
       </c>
       <c r="D79">
-        <v>0.01981408621141227</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.04104741169051276</v>
+      </c>
+      <c r="E79">
+        <v>0.01168794475693932</v>
+      </c>
+      <c r="F79">
+        <v>0.01712685277827976</v>
+      </c>
+      <c r="G79">
+        <v>0.03997754356997224</v>
+      </c>
+      <c r="H79">
+        <v>-0.1545788759819782</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.04142497522065664</v>
+        <v>-0.04231086948738331</v>
       </c>
       <c r="C80">
-        <v>0.0190819748473012</v>
+        <v>0.01058496532534629</v>
       </c>
       <c r="D80">
-        <v>0.03138518100040893</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01369850601650128</v>
+      </c>
+      <c r="E80">
+        <v>0.04092442307325182</v>
+      </c>
+      <c r="F80">
+        <v>0.00561598690009247</v>
+      </c>
+      <c r="G80">
+        <v>-0.0158341882366901</v>
+      </c>
+      <c r="H80">
+        <v>-0.04537952856278397</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1220341705652134</v>
+        <v>-0.1240564719153822</v>
       </c>
       <c r="C81">
-        <v>0.05883053181185278</v>
+        <v>0.03122650577920355</v>
       </c>
       <c r="D81">
-        <v>0.02584745280242575</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.02847218110199945</v>
+      </c>
+      <c r="E81">
+        <v>-0.006579943411076461</v>
+      </c>
+      <c r="F81">
+        <v>0.01684692658416936</v>
+      </c>
+      <c r="G81">
+        <v>0.006320640821361011</v>
+      </c>
+      <c r="H81">
+        <v>-0.1401028034077599</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.1342748731644227</v>
+        <v>-0.1314223156998162</v>
       </c>
       <c r="C82">
-        <v>0.0688928745669366</v>
+        <v>0.03830386534068921</v>
       </c>
       <c r="D82">
-        <v>0.001022430812671912</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.03427857395960104</v>
+      </c>
+      <c r="E82">
+        <v>0.02142872852468829</v>
+      </c>
+      <c r="F82">
+        <v>0.04101587987247066</v>
+      </c>
+      <c r="G82">
+        <v>0.02868444681509118</v>
+      </c>
+      <c r="H82">
+        <v>-0.213757356510771</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.06145131147596737</v>
+        <v>-0.0776528922506996</v>
       </c>
       <c r="C83">
-        <v>-0.03179796091025053</v>
+        <v>-0.04053653550195378</v>
       </c>
       <c r="D83">
-        <v>0.02460766557849945</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.01964498017972305</v>
+      </c>
+      <c r="E83">
+        <v>-0.02328592989310128</v>
+      </c>
+      <c r="F83">
+        <v>0.03184392737620216</v>
+      </c>
+      <c r="G83">
+        <v>-0.0415367662290431</v>
+      </c>
+      <c r="H83">
+        <v>0.02241245006370335</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.02480911865235253</v>
+        <v>-0.03226504758706144</v>
       </c>
       <c r="C84">
-        <v>0.02283028255207311</v>
+        <v>0.0129401483874432</v>
       </c>
       <c r="D84">
-        <v>0.04170715547903842</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.0405136684335588</v>
+      </c>
+      <c r="E84">
+        <v>-0.0174765568594434</v>
+      </c>
+      <c r="F84">
+        <v>-0.03595786238025256</v>
+      </c>
+      <c r="G84">
+        <v>-0.03234524928829403</v>
+      </c>
+      <c r="H84">
+        <v>-0.03785245460377549</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1179074173595972</v>
+        <v>-0.1221083873905761</v>
       </c>
       <c r="C85">
-        <v>0.04053990673899413</v>
+        <v>0.01502449383440084</v>
       </c>
       <c r="D85">
-        <v>0.05031435704261335</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.03845302325885745</v>
+      </c>
+      <c r="E85">
+        <v>-0.01824536371292017</v>
+      </c>
+      <c r="F85">
+        <v>0.03605078735106653</v>
+      </c>
+      <c r="G85">
+        <v>0.005630004378242415</v>
+      </c>
+      <c r="H85">
+        <v>-0.1413247283433608</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.05268100958554649</v>
+        <v>-0.05584613035086007</v>
       </c>
       <c r="C86">
-        <v>0.02409487561962213</v>
+        <v>0.008900907936722191</v>
       </c>
       <c r="D86">
-        <v>0.06376197562013125</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.03480044843642686</v>
+      </c>
+      <c r="E86">
+        <v>-0.03603358707497828</v>
+      </c>
+      <c r="F86">
+        <v>0.02266697363387817</v>
+      </c>
+      <c r="G86">
+        <v>-0.05223614425919972</v>
+      </c>
+      <c r="H86">
+        <v>0.04306530057303223</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.1242808228566091</v>
+        <v>-0.1268323630535248</v>
       </c>
       <c r="C87">
-        <v>0.07541297596547673</v>
+        <v>0.0360215753615587</v>
       </c>
       <c r="D87">
-        <v>0.06814503318418591</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.06896378685184794</v>
+      </c>
+      <c r="E87">
+        <v>-0.02019597510383427</v>
+      </c>
+      <c r="F87">
+        <v>0.01784729476706907</v>
+      </c>
+      <c r="G87">
+        <v>0.1376920148579802</v>
+      </c>
+      <c r="H87">
+        <v>0.08488916778921793</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.05431723982594264</v>
+        <v>-0.06327429486701042</v>
       </c>
       <c r="C88">
-        <v>0.03187719289818643</v>
+        <v>0.01988397323729407</v>
       </c>
       <c r="D88">
-        <v>0.02546144074614238</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.03876304188118176</v>
+      </c>
+      <c r="E88">
+        <v>-0.006379122531028784</v>
+      </c>
+      <c r="F88">
+        <v>0.02108041354443022</v>
+      </c>
+      <c r="G88">
+        <v>0.0151178161066479</v>
+      </c>
+      <c r="H88">
+        <v>-0.04029147039245525</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.08146888332967893</v>
+        <v>-0.1040419006072882</v>
       </c>
       <c r="C89">
-        <v>0.0664879867888505</v>
+        <v>0.1218920151130496</v>
       </c>
       <c r="D89">
-        <v>-0.3220170280835118</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.3397567205481849</v>
+      </c>
+      <c r="E89">
+        <v>-0.06414975998744074</v>
+      </c>
+      <c r="F89">
+        <v>0.07090212016876325</v>
+      </c>
+      <c r="G89">
+        <v>-0.01421673489631146</v>
+      </c>
+      <c r="H89">
+        <v>-0.01976138991848637</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.06223495547706438</v>
+        <v>-0.08061966386275109</v>
       </c>
       <c r="C90">
-        <v>0.05551325183820487</v>
+        <v>0.1002950390755423</v>
       </c>
       <c r="D90">
-        <v>-0.2802362490857363</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2806984622067611</v>
+      </c>
+      <c r="E90">
+        <v>-0.0528431742733909</v>
+      </c>
+      <c r="F90">
+        <v>0.02876457648609366</v>
+      </c>
+      <c r="G90">
+        <v>0.02696754276937663</v>
+      </c>
+      <c r="H90">
+        <v>0.01144374657664502</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.08970509667878905</v>
+        <v>-0.09041009295260206</v>
       </c>
       <c r="C91">
-        <v>0.04916125453618137</v>
+        <v>0.02392507234905315</v>
       </c>
       <c r="D91">
-        <v>0.01420189317720359</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.03259059975642513</v>
+      </c>
+      <c r="E91">
+        <v>-0.00574252968770269</v>
+      </c>
+      <c r="F91">
+        <v>0.002378452557719386</v>
+      </c>
+      <c r="G91">
+        <v>-0.01515937340008402</v>
+      </c>
+      <c r="H91">
+        <v>-0.08792389093081052</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.06721121336254603</v>
+        <v>-0.08221084209140464</v>
       </c>
       <c r="C92">
-        <v>0.06404579149244267</v>
+        <v>0.1149987722761476</v>
       </c>
       <c r="D92">
-        <v>-0.3352178597898948</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.3286532474245137</v>
+      </c>
+      <c r="E92">
+        <v>-0.05371011998420325</v>
+      </c>
+      <c r="F92">
+        <v>0.03340907599821378</v>
+      </c>
+      <c r="G92">
+        <v>0.001914774506749394</v>
+      </c>
+      <c r="H92">
+        <v>-0.02117251765676323</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.05847859905369613</v>
+        <v>-0.07861467609424418</v>
       </c>
       <c r="C93">
-        <v>0.06043456419370023</v>
+        <v>0.1112724952605516</v>
       </c>
       <c r="D93">
-        <v>-0.3010035518821388</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2965167144662527</v>
+      </c>
+      <c r="E93">
+        <v>-0.02810042818520612</v>
+      </c>
+      <c r="F93">
+        <v>0.02916722735788216</v>
+      </c>
+      <c r="G93">
+        <v>0.01613554845541424</v>
+      </c>
+      <c r="H93">
+        <v>-0.00358150104218415</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.1342757493628176</v>
+        <v>-0.1291111074040495</v>
       </c>
       <c r="C94">
-        <v>0.04314647986151634</v>
+        <v>0.007880174810563941</v>
       </c>
       <c r="D94">
-        <v>0.04080077523036985</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04756052604449607</v>
+      </c>
+      <c r="E94">
+        <v>0.02076837077574401</v>
+      </c>
+      <c r="F94">
+        <v>0.01683273617869215</v>
+      </c>
+      <c r="G94">
+        <v>-0.02928840116250109</v>
+      </c>
+      <c r="H94">
+        <v>-0.1092730024626629</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.1200093048664314</v>
+        <v>-0.1286818432266236</v>
       </c>
       <c r="C95">
-        <v>0.01719872571102006</v>
+        <v>-0.009357763171773814</v>
       </c>
       <c r="D95">
-        <v>0.05675852469465448</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.05691857184836927</v>
+      </c>
+      <c r="E95">
+        <v>-0.00596152844071715</v>
+      </c>
+      <c r="F95">
+        <v>0.04972142140426888</v>
+      </c>
+      <c r="G95">
+        <v>0.02211843170195002</v>
+      </c>
+      <c r="H95">
+        <v>0.1005362415091739</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>-0.2200665250514454</v>
+        <v>-0.1937195621214636</v>
       </c>
       <c r="C97">
-        <v>0.03832490772522019</v>
+        <v>-0.01559569056930111</v>
       </c>
       <c r="D97">
-        <v>-0.1009441578168083</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.0636982903247221</v>
+      </c>
+      <c r="E97">
+        <v>0.06763652931352944</v>
+      </c>
+      <c r="F97">
+        <v>-0.9374962476989759</v>
+      </c>
+      <c r="G97">
+        <v>0.02867218058170698</v>
+      </c>
+      <c r="H97">
+        <v>0.0194999632419618</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.2412027308958591</v>
+        <v>-0.2721107273382273</v>
       </c>
       <c r="C98">
-        <v>0.05125390739253128</v>
+        <v>0.01130830860037063</v>
       </c>
       <c r="D98">
-        <v>0.01085006437904156</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.0384438808598386</v>
+      </c>
+      <c r="E98">
+        <v>0.2064398276033032</v>
+      </c>
+      <c r="F98">
+        <v>0.04997874608723987</v>
+      </c>
+      <c r="G98">
+        <v>-0.3421348187767469</v>
+      </c>
+      <c r="H98">
+        <v>0.1857443531478918</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>-0.410957263490118</v>
+        <v>-0.2642860012840406</v>
       </c>
       <c r="C99">
-        <v>-0.8927403433256765</v>
+        <v>-0.9178614946969338</v>
       </c>
       <c r="D99">
-        <v>-0.05172557850118052</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.2248286352748349</v>
+      </c>
+      <c r="E99">
+        <v>-0.06838001672733712</v>
+      </c>
+      <c r="F99">
+        <v>0.0785060187633931</v>
+      </c>
+      <c r="G99">
+        <v>0.02496645444238548</v>
+      </c>
+      <c r="H99">
+        <v>-0.07285224444742897</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.04468351284188798</v>
+        <v>-0.04710680592208219</v>
       </c>
       <c r="C101">
-        <v>0.03136351826373631</v>
+        <v>0.02276466142401706</v>
       </c>
       <c r="D101">
-        <v>0.003038865783743805</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01233765251695919</v>
+      </c>
+      <c r="E101">
+        <v>-0.05517758677643809</v>
+      </c>
+      <c r="F101">
+        <v>0.01264715525842724</v>
+      </c>
+      <c r="G101">
+        <v>0.01255676970846913</v>
+      </c>
+      <c r="H101">
+        <v>-0.06510515445391925</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
